--- a/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3832,7 +3833,6 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>94.11</t>
@@ -3847,6 +3847,1352 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>196.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6250</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3362</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1970</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5858</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1368</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9651</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8098</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7649</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5366</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5199,4 +5200,2490 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2677</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2516</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1948</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0756</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9560</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9536</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8486</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7463</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6285</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5189</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3838</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>11.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7686,4 +7687,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7695,7 +7696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7706,17 +7707,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7726,14 +7747,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.4</v>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -7742,14 +7785,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.21</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -7758,14 +7823,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.6</v>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7774,13 +7861,5127 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8262</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5482</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2699</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0907</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8670</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7265</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5393</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4337</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2627</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2315</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1998</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0307</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9423</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8986</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8747</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8440</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7328</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7035</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6633</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6436</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6197</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5983</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5615</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5503</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3849</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3327</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010174</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>英大智享债券A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011801</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010175</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>英大智享债券C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>73.29</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011802</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>135</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>62</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>25.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12880,7 +12881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12891,17 +12892,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12911,14 +12932,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>135</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52.81</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>271.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -12927,14 +12970,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.4</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -12943,14 +13008,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.21</v>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -12959,14 +13046,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.6</v>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -12975,13 +13084,5675 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5793</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3645</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3161</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9289</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.6163</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1298</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6866</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4868</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3049</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1021</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8258</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8246</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8099</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7733</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6976</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6618</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6592</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5567</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5154</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5143</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>51.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4730</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4676</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4586</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4429</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4077</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3927</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3764</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3519</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>22.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>49.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>49.30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="n">
+        <v>69.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>135</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>62</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>25.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18635,7 +18636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18646,17 +18647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18666,14 +18687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="n">
-        <v>69.86</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -18682,14 +18725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>135</v>
-      </c>
-      <c r="D3" t="n">
-        <v>52.81</v>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7780</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -18698,14 +18763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.4</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -18714,14 +18801,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.21</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -18730,14 +18839,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.6</v>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3676</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -18746,13 +18877,3869 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2718</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7809</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5688</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0506</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9624</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8545</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8521</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7523</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7461</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6990</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6708</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6320</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6116</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5936</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5882</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5642</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5333</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5093</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4788</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4579</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>51.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4295</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4153</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013047</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>53.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519768</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519769</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000812</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>150</v>
+      </c>
+      <c r="D3" t="n">
+        <v>69.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>135</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>62</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>25.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>37.42</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>69.86</v>
+        <v>37.42</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>52.81</v>
+        <v>69.86</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="D5" t="n">
-        <v>34.4</v>
+        <v>52.81</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>23.21</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>11.6</v>
+        <v>23.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>62</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>25.98</v>
       </c>
     </row>
@@ -600,6 +617,2942 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7617</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2623</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5814</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9842</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7780</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5501</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4797</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3737</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝多策略增长A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3517</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014786</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实新兴科技100ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003958</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003957</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015614</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信澳新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015613</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝多策略增长C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013132</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定开混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013133</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009624</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定开混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015637</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014787</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4569,7 +7522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10323,7 +13276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15507,7 +18460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17993,7 +20946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19339,7 +22292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20338,7 +23291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
+++ b/数据整理/stocks/A股/深证主板/002555-三七互娱.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>16.33</v>
+        <v>17.38</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>37.42</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>69.86</v>
+        <v>37.42</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D5" t="n">
-        <v>52.81</v>
+        <v>69.86</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="D6" t="n">
-        <v>34.4</v>
+        <v>52.81</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>23.21</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>11.6</v>
+        <v>23.21</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2440 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>62</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>25.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8453</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2232</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8626</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8568</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7792</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7792</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7499</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7499</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7318</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5782</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5300</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5250</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5116</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4690</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4585</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000810</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000812</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>168108</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰锐诚灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002191</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>农银汇理物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3044,3020 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4174</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8961</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8300</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8091</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7165</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安宏利混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5902</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5304</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4928</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4807</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014987</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>54.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实新兴科技100ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014773</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安品质领先混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016157</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富数字经济核心产业一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>57.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014988</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>54.61</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014774</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安品质领先混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013132</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013133</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016158</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富数字经济核心产业一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>016159</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富数字经济核心产业一年持有期混合D</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>017462</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>016294</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安宏利混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3552,7 +8993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7522,7 +12963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13276,7 +18717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18460,7 +23901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20946,7 +26387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22292,7 +27733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23289,2414 +28730,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>180031</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>76.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.8870</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519697</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银优势行业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>67.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0008</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512980</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.8453</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>29.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.7347</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000601</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝创新优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.75</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2600</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501092</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>64.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.2232</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519700</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银主题优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>31.69</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>75.68</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.1092</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银施罗德持续成长主题混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>28.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.84</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8626</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>163409</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>兴全绿色投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>30.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8568</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>960017</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>交银稳健配置混合H</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>33.44</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>66.61</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7792</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519690</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>交银稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>33.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>66.61</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7792</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.7499</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7499</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007689</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银新能源混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.7318</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>270008</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发核心精选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.09</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5782</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>160629</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5300</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010114</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>13.19</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>83.89</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5250</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000124</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华宝服务优选混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10.15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5116</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>240004</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝动力组合混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88.16</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4690</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000020</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>景顺长城品质投资混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.27</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4585</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001704</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国投瑞银进宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3267</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007690</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国投瑞银新能源混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2882</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2588</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006736</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国投瑞银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2142</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>159805</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>95.42</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2099</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1944</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>515860</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>99.33</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1942</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>671010</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1610</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003397</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>银华体育文化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>79.79</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1430</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001534</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华宝万物互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1143</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001223</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>鹏华文化传媒娱乐股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>83.23</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1137</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1132</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005825</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>申万菱信智能驱动股票</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1011</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>000534</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>长盛高端装备制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0874</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>000810</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>富国收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0832</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>006780</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>广发稳健策略混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>87.52</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0828</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004951</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>申万菱信价值优利混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>000747</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>广发逆向策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0659</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003877</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>富国久利稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>27.16</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0624</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>519198</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>万家颐和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>91.01</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0598</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001980</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>中欧量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>88.80</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0492</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>164818</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0385</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005418</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>申万菱信量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>002424</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>博时文体娱乐主题混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>85.92</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>000812</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>富国收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>007423</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>168108</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>九泰锐诚灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002191</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>农银汇理物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>88.27</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>165522</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>005281</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>中科沃土转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>007316</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>22.01</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>007424</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>001972</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>86.25</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>003878</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>富国久利稳健配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>27.16</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>007317</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>22.01</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>011060</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>010677</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>